--- a/biology/Origine et évolution du vivant/Johnjoe_Mac_Fadden/Johnjoe_Mac_Fadden.xlsx
+++ b/biology/Origine et évolution du vivant/Johnjoe_Mac_Fadden/Johnjoe_Mac_Fadden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johnjoe Mac Fadden, né le 17 mai 1956 à Donegal en Irlande, est un biologiste et généticien irlando-britannique, professeur de génétique moléculaire à l'université de Surrey.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BSc de biochimie en 1978 au Bedford College et PhD de biochimie en 1982 à l'Imperial College London[1].
-Dans son ouvrage Quantum of Evolution, The new science of life[2], il a émis différentes hypothèses audacieuses sur l'importance de la mécanique quantique dans les systèmes biologiques. Il a notamment émis l'hypothèse que certaines mutations génétiques, mésappariements de bases tautomères, soient dues à des transferts d'électrons par effet tunnel et avance également que l'apparition de la vie soit imputable à des phénomènes quantiques.
-Il est interviewé en 2002 par la revue Automates Intelligents sur l'évolution quantique[3].
-Il écrit de nombreux articles pour The Guardian[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BSc de biochimie en 1978 au Bedford College et PhD de biochimie en 1982 à l'Imperial College London.
+Dans son ouvrage Quantum of Evolution, The new science of life, il a émis différentes hypothèses audacieuses sur l'importance de la mécanique quantique dans les systèmes biologiques. Il a notamment émis l'hypothèse que certaines mutations génétiques, mésappariements de bases tautomères, soient dues à des transferts d'électrons par effet tunnel et avance également que l'apparition de la vie soit imputable à des phénomènes quantiques.
+Il est interviewé en 2002 par la revue Automates Intelligents sur l'évolution quantique.
+Il écrit de nombreux articles pour The Guardian.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1990 - Molecular biology of the mycobacteria (Survey seminars in molecular microbiology), Surrey University Press  (ISBN 0124833780)  (ISBN 9780124833784)
-2000 - Quantum of Evolution, The new science of life[2],[5]
+2000 - Quantum of Evolution, The new science of life,
 2006 - Human nature: fact and fiction, avec Robin Headlam Wells, Continuum International Publishing Group  (ISBN 0826485456)  (ISBN 9780826485458)</t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2009 - Triple functionalisation of single-walled carbon nanotubes with doxorubicin, a monoclonal antibody, and a fluorescent marker for targeted cancer therapy (Elena Heister, Vera Neves, Carmen Tîlmaciu, Kamil Lipert, Vanesa Sanz Beltrán, Helen M. Coley, S. Ravi P. Silva, Johnjoe McFadden) in Carbon[6]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2009 - Triple functionalisation of single-walled carbon nanotubes with doxorubicin, a monoclonal antibody, and a fluorescent marker for targeted cancer therapy (Elena Heister, Vera Neves, Carmen Tîlmaciu, Kamil Lipert, Vanesa Sanz Beltrán, Helen M. Coley, S. Ravi P. Silva, Johnjoe McFadden) in Carbon</t>
         </is>
       </c>
     </row>
